--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.4076210329856</v>
+        <v>17.05375133333333</v>
       </c>
       <c r="H2">
-        <v>11.4076210329856</v>
+        <v>51.161254</v>
       </c>
       <c r="I2">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="J2">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.06585425610143569</v>
+        <v>0.012411</v>
       </c>
       <c r="N2">
-        <v>0.06585425610143569</v>
+        <v>0.037233</v>
       </c>
       <c r="O2">
-        <v>0.0009782021274034895</v>
+        <v>0.0001734784643863198</v>
       </c>
       <c r="P2">
-        <v>0.0009782021274034895</v>
+        <v>0.0001734784643863198</v>
       </c>
       <c r="Q2">
-        <v>0.7512403970143582</v>
+        <v>0.211654107798</v>
       </c>
       <c r="R2">
-        <v>0.7512403970143582</v>
+        <v>1.904886970182</v>
       </c>
       <c r="S2">
-        <v>0.0002763642248272442</v>
+        <v>6.073977530751236E-05</v>
       </c>
       <c r="T2">
-        <v>0.0002763642248272442</v>
+        <v>6.073977530751239E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.4076210329856</v>
+        <v>17.05375133333333</v>
       </c>
       <c r="H3">
-        <v>11.4076210329856</v>
+        <v>51.161254</v>
       </c>
       <c r="I3">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="J3">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.296121572575</v>
+        <v>0.08803833333333333</v>
       </c>
       <c r="N3">
-        <v>18.296121572575</v>
+        <v>0.264115</v>
       </c>
       <c r="O3">
-        <v>0.2717714253420223</v>
+        <v>0.001230582134702894</v>
       </c>
       <c r="P3">
-        <v>0.2717714253420223</v>
+        <v>0.001230582134702894</v>
       </c>
       <c r="Q3">
-        <v>208.7152212733681</v>
+        <v>1.501383844467778</v>
       </c>
       <c r="R3">
-        <v>208.7152212733681</v>
+        <v>13.51245460021</v>
       </c>
       <c r="S3">
-        <v>0.07678157426850769</v>
+        <v>0.0004308620244230555</v>
       </c>
       <c r="T3">
-        <v>0.07678157426850769</v>
+        <v>0.0004308620244230557</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.4076210329856</v>
+        <v>17.05375133333333</v>
       </c>
       <c r="H4">
-        <v>11.4076210329856</v>
+        <v>51.161254</v>
       </c>
       <c r="I4">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="J4">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.2251183204548</v>
+        <v>20.739774</v>
       </c>
       <c r="N4">
-        <v>19.2251183204548</v>
+        <v>62.219322</v>
       </c>
       <c r="O4">
-        <v>0.2855707854582036</v>
+        <v>0.2898963939440272</v>
       </c>
       <c r="P4">
-        <v>0.2855707854582036</v>
+        <v>0.2898963939440272</v>
       </c>
       <c r="Q4">
-        <v>219.312864114057</v>
+        <v>353.690948505532</v>
       </c>
       <c r="R4">
-        <v>219.312864114057</v>
+        <v>3183.218536549788</v>
       </c>
       <c r="S4">
-        <v>0.08068020559917478</v>
+        <v>0.1015010243081611</v>
       </c>
       <c r="T4">
-        <v>0.08068020559917478</v>
+        <v>0.1015010243081611</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.4076210329856</v>
+        <v>17.05375133333333</v>
       </c>
       <c r="H5">
-        <v>11.4076210329856</v>
+        <v>51.161254</v>
       </c>
       <c r="I5">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="J5">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.6720034147249</v>
+        <v>19.56635666666667</v>
       </c>
       <c r="N5">
-        <v>29.6720034147249</v>
+        <v>58.69907</v>
       </c>
       <c r="O5">
-        <v>0.4407492937115529</v>
+        <v>0.2734946022212847</v>
       </c>
       <c r="P5">
-        <v>0.4407492937115529</v>
+        <v>0.2734946022212847</v>
       </c>
       <c r="Q5">
-        <v>338.4869702446364</v>
+        <v>333.6797810926423</v>
       </c>
       <c r="R5">
-        <v>338.4869702446364</v>
+        <v>3003.11802983378</v>
       </c>
       <c r="S5">
-        <v>0.1245216438274066</v>
+        <v>0.09575828760937716</v>
       </c>
       <c r="T5">
-        <v>0.1245216438274066</v>
+        <v>0.09575828760937717</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.4076210329856</v>
+        <v>17.05375133333333</v>
       </c>
       <c r="H6">
-        <v>11.4076210329856</v>
+        <v>51.161254</v>
       </c>
       <c r="I6">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="J6">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0626289552194924</v>
+        <v>31.06110666666667</v>
       </c>
       <c r="N6">
-        <v>0.0626289552194924</v>
+        <v>93.18332000000001</v>
       </c>
       <c r="O6">
-        <v>0.0009302933608178702</v>
+        <v>0.4341659082002267</v>
       </c>
       <c r="P6">
-        <v>0.0009302933608178702</v>
+        <v>0.4341659082002268</v>
       </c>
       <c r="Q6">
-        <v>0.7144473868357948</v>
+        <v>529.7083892314756</v>
       </c>
       <c r="R6">
-        <v>0.7144473868357948</v>
+        <v>4767.375503083281</v>
       </c>
       <c r="S6">
-        <v>0.0002628289147221552</v>
+        <v>0.1520139102196445</v>
       </c>
       <c r="T6">
-        <v>0.0002628289147221552</v>
+        <v>0.1520139102196446</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.96738362552852</v>
+        <v>17.05375133333333</v>
       </c>
       <c r="H7">
-        <v>2.96738362552852</v>
+        <v>51.161254</v>
       </c>
       <c r="I7">
-        <v>0.07349060637730184</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="J7">
-        <v>0.07349060637730184</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.06585425610143569</v>
+        <v>0.07433466666666666</v>
       </c>
       <c r="N7">
-        <v>0.06585425610143569</v>
+        <v>0.223004</v>
       </c>
       <c r="O7">
-        <v>0.0009782021274034895</v>
+        <v>0.001039035035372032</v>
       </c>
       <c r="P7">
-        <v>0.0009782021274034895</v>
+        <v>0.001039035035372032</v>
       </c>
       <c r="Q7">
-        <v>0.1954148412267619</v>
+        <v>1.267684920779556</v>
       </c>
       <c r="R7">
-        <v>0.1954148412267619</v>
+        <v>11.409164287016</v>
       </c>
       <c r="S7">
-        <v>7.188866750244912E-05</v>
+        <v>0.0003637959029000211</v>
       </c>
       <c r="T7">
-        <v>7.188866750244912E-05</v>
+        <v>0.0003637959029000212</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.96738362552852</v>
+        <v>3.037017666666667</v>
       </c>
       <c r="H8">
-        <v>2.96738362552852</v>
+        <v>9.111053</v>
       </c>
       <c r="I8">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494154</v>
       </c>
       <c r="J8">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494155</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>18.296121572575</v>
+        <v>0.012411</v>
       </c>
       <c r="N8">
-        <v>18.296121572575</v>
+        <v>0.037233</v>
       </c>
       <c r="O8">
-        <v>0.2717714253420223</v>
+        <v>0.0001734784643863198</v>
       </c>
       <c r="P8">
-        <v>0.2717714253420223</v>
+        <v>0.0001734784643863198</v>
       </c>
       <c r="Q8">
-        <v>54.29161156513817</v>
+        <v>0.037692426261</v>
       </c>
       <c r="R8">
-        <v>54.29161156513817</v>
+        <v>0.339231836349</v>
       </c>
       <c r="S8">
-        <v>0.01997264684440883</v>
+        <v>1.081684416951227E-05</v>
       </c>
       <c r="T8">
-        <v>0.01997264684440883</v>
+        <v>1.081684416951228E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.96738362552852</v>
+        <v>3.037017666666667</v>
       </c>
       <c r="H9">
-        <v>2.96738362552852</v>
+        <v>9.111053</v>
       </c>
       <c r="I9">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494154</v>
       </c>
       <c r="J9">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494155</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.2251183204548</v>
+        <v>0.08803833333333333</v>
       </c>
       <c r="N9">
-        <v>19.2251183204548</v>
+        <v>0.264115</v>
       </c>
       <c r="O9">
-        <v>0.2855707854582036</v>
+        <v>0.001230582134702894</v>
       </c>
       <c r="P9">
-        <v>0.2855707854582036</v>
+        <v>0.001230582134702894</v>
       </c>
       <c r="Q9">
-        <v>57.04830130296594</v>
+        <v>0.2673739736772222</v>
       </c>
       <c r="R9">
-        <v>57.04830130296594</v>
+        <v>2.406365763095</v>
       </c>
       <c r="S9">
-        <v>0.02098677018696575</v>
+        <v>7.673007272663318E-05</v>
       </c>
       <c r="T9">
-        <v>0.02098677018696575</v>
+        <v>7.673007272663322E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.96738362552852</v>
+        <v>3.037017666666667</v>
       </c>
       <c r="H10">
-        <v>2.96738362552852</v>
+        <v>9.111053</v>
       </c>
       <c r="I10">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494154</v>
       </c>
       <c r="J10">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494155</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>29.6720034147249</v>
+        <v>20.739774</v>
       </c>
       <c r="N10">
-        <v>29.6720034147249</v>
+        <v>62.219322</v>
       </c>
       <c r="O10">
-        <v>0.4407492937115529</v>
+        <v>0.2898963939440272</v>
       </c>
       <c r="P10">
-        <v>0.4407492937115529</v>
+        <v>0.2898963939440272</v>
       </c>
       <c r="Q10">
-        <v>88.048217069481</v>
+        <v>62.987060040674</v>
       </c>
       <c r="R10">
-        <v>88.048217069481</v>
+        <v>566.883540366066</v>
       </c>
       <c r="S10">
-        <v>0.03239093285522953</v>
+        <v>0.01807581205937493</v>
       </c>
       <c r="T10">
-        <v>0.03239093285522953</v>
+        <v>0.01807581205937493</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.96738362552852</v>
+        <v>3.037017666666667</v>
       </c>
       <c r="H11">
-        <v>2.96738362552852</v>
+        <v>9.111053</v>
       </c>
       <c r="I11">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494154</v>
       </c>
       <c r="J11">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494155</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.0626289552194924</v>
+        <v>19.56635666666667</v>
       </c>
       <c r="N11">
-        <v>0.0626289552194924</v>
+        <v>58.69907</v>
       </c>
       <c r="O11">
-        <v>0.0009302933608178702</v>
+        <v>0.2734946022212847</v>
       </c>
       <c r="P11">
-        <v>0.0009302933608178702</v>
+        <v>0.2734946022212847</v>
       </c>
       <c r="Q11">
-        <v>0.1858441362022807</v>
+        <v>59.42337086896779</v>
       </c>
       <c r="R11">
-        <v>0.1858441362022807</v>
+        <v>534.8103378207099</v>
       </c>
       <c r="S11">
-        <v>6.836782319528333E-05</v>
+        <v>0.01705311667298614</v>
       </c>
       <c r="T11">
-        <v>6.836782319528333E-05</v>
+        <v>0.01705311667298614</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.65010348268525</v>
+        <v>3.037017666666667</v>
       </c>
       <c r="H12">
-        <v>4.65010348268525</v>
+        <v>9.111053</v>
       </c>
       <c r="I12">
-        <v>0.1151650638359491</v>
+        <v>0.06235266266494154</v>
       </c>
       <c r="J12">
-        <v>0.1151650638359491</v>
+        <v>0.06235266266494155</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.06585425610143569</v>
+        <v>31.06110666666667</v>
       </c>
       <c r="N12">
-        <v>0.06585425610143569</v>
+        <v>93.18332000000001</v>
       </c>
       <c r="O12">
-        <v>0.0009782021274034895</v>
+        <v>0.4341659082002267</v>
       </c>
       <c r="P12">
-        <v>0.0009782021274034895</v>
+        <v>0.4341659082002268</v>
       </c>
       <c r="Q12">
-        <v>0.3062291056469325</v>
+        <v>94.33312969288447</v>
       </c>
       <c r="R12">
-        <v>0.3062291056469325</v>
+        <v>848.9981672359601</v>
       </c>
       <c r="S12">
-        <v>0.0001126547104468841</v>
+        <v>0.02707140041462671</v>
       </c>
       <c r="T12">
-        <v>0.0001126547104468841</v>
+        <v>0.02707140041462672</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.65010348268525</v>
+        <v>3.037017666666667</v>
       </c>
       <c r="H13">
-        <v>4.65010348268525</v>
+        <v>9.111053</v>
       </c>
       <c r="I13">
-        <v>0.1151650638359491</v>
+        <v>0.06235266266494154</v>
       </c>
       <c r="J13">
-        <v>0.1151650638359491</v>
+        <v>0.06235266266494155</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.296121572575</v>
+        <v>0.07433466666666666</v>
       </c>
       <c r="N13">
-        <v>18.296121572575</v>
+        <v>0.223004</v>
       </c>
       <c r="O13">
-        <v>0.2717714253420223</v>
+        <v>0.001039035035372032</v>
       </c>
       <c r="P13">
-        <v>0.2717714253420223</v>
+        <v>0.001039035035372032</v>
       </c>
       <c r="Q13">
-        <v>85.07885864426373</v>
+        <v>0.2257556959124444</v>
       </c>
       <c r="R13">
-        <v>85.07885864426373</v>
+        <v>2.031801263212</v>
       </c>
       <c r="S13">
-        <v>0.03129857354830087</v>
+        <v>6.478660105760789E-05</v>
       </c>
       <c r="T13">
-        <v>0.03129857354830087</v>
+        <v>6.478660105760791E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.65010348268525</v>
+        <v>4.955296333333334</v>
       </c>
       <c r="H14">
-        <v>4.65010348268525</v>
+        <v>14.865889</v>
       </c>
       <c r="I14">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="J14">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>19.2251183204548</v>
+        <v>0.012411</v>
       </c>
       <c r="N14">
-        <v>19.2251183204548</v>
+        <v>0.037233</v>
       </c>
       <c r="O14">
-        <v>0.2855707854582036</v>
+        <v>0.0001734784643863198</v>
       </c>
       <c r="P14">
-        <v>0.2855707854582036</v>
+        <v>0.0001734784643863198</v>
       </c>
       <c r="Q14">
-        <v>89.39878965698287</v>
+        <v>0.06150018279300001</v>
       </c>
       <c r="R14">
-        <v>89.39878965698287</v>
+        <v>0.5535016451370001</v>
       </c>
       <c r="S14">
-        <v>0.03288777773697614</v>
+        <v>1.764911308871396E-05</v>
       </c>
       <c r="T14">
-        <v>0.03288777773697614</v>
+        <v>1.764911308871397E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.65010348268525</v>
+        <v>4.955296333333334</v>
       </c>
       <c r="H15">
-        <v>4.65010348268525</v>
+        <v>14.865889</v>
       </c>
       <c r="I15">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="J15">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>29.6720034147249</v>
+        <v>0.08803833333333333</v>
       </c>
       <c r="N15">
-        <v>29.6720034147249</v>
+        <v>0.264115</v>
       </c>
       <c r="O15">
-        <v>0.4407492937115529</v>
+        <v>0.001230582134702894</v>
       </c>
       <c r="P15">
-        <v>0.4407492937115529</v>
+        <v>0.001230582134702894</v>
       </c>
       <c r="Q15">
-        <v>137.9778864170609</v>
+        <v>0.4362560303594445</v>
       </c>
       <c r="R15">
-        <v>137.9778864170609</v>
+        <v>3.926304273235</v>
       </c>
       <c r="S15">
-        <v>0.05075892054594047</v>
+        <v>0.0001251952704167187</v>
       </c>
       <c r="T15">
-        <v>0.05075892054594047</v>
+        <v>0.0001251952704167188</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.65010348268525</v>
+        <v>4.955296333333334</v>
       </c>
       <c r="H16">
-        <v>4.65010348268525</v>
+        <v>14.865889</v>
       </c>
       <c r="I16">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="J16">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.0626289552194924</v>
+        <v>20.739774</v>
       </c>
       <c r="N16">
-        <v>0.0626289552194924</v>
+        <v>62.219322</v>
       </c>
       <c r="O16">
-        <v>0.0009302933608178702</v>
+        <v>0.2898963939440272</v>
       </c>
       <c r="P16">
-        <v>0.0009302933608178702</v>
+        <v>0.2898963939440272</v>
       </c>
       <c r="Q16">
-        <v>0.2912311227831001</v>
+        <v>102.771726056362</v>
       </c>
       <c r="R16">
-        <v>0.2912311227831001</v>
+        <v>924.945534507258</v>
       </c>
       <c r="S16">
-        <v>0.0001071372942847496</v>
+        <v>0.02949308007093462</v>
       </c>
       <c r="T16">
-        <v>0.0001071372942847496</v>
+        <v>0.02949308007093463</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.39179948365893</v>
+        <v>4.955296333333334</v>
       </c>
       <c r="H17">
-        <v>5.39179948365893</v>
+        <v>14.865889</v>
       </c>
       <c r="I17">
-        <v>0.133534002853555</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="J17">
-        <v>0.133534002853555</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.06585425610143569</v>
+        <v>19.56635666666667</v>
       </c>
       <c r="N17">
-        <v>0.06585425610143569</v>
+        <v>58.69907</v>
       </c>
       <c r="O17">
-        <v>0.0009782021274034895</v>
+        <v>0.2734946022212847</v>
       </c>
       <c r="P17">
-        <v>0.0009782021274034895</v>
+        <v>0.2734946022212847</v>
       </c>
       <c r="Q17">
-        <v>0.3550729440444639</v>
+        <v>96.95709544702557</v>
       </c>
       <c r="R17">
-        <v>0.3550729440444639</v>
+        <v>872.61385902323</v>
       </c>
       <c r="S17">
-        <v>0.0001306232456720511</v>
+        <v>0.02782441717380649</v>
       </c>
       <c r="T17">
-        <v>0.0001306232456720511</v>
+        <v>0.0278244171738065</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.39179948365893</v>
+        <v>4.955296333333334</v>
       </c>
       <c r="H18">
-        <v>5.39179948365893</v>
+        <v>14.865889</v>
       </c>
       <c r="I18">
-        <v>0.133534002853555</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="J18">
-        <v>0.133534002853555</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.296121572575</v>
+        <v>31.06110666666667</v>
       </c>
       <c r="N18">
-        <v>18.296121572575</v>
+        <v>93.18332000000001</v>
       </c>
       <c r="O18">
-        <v>0.2717714253420223</v>
+        <v>0.4341659082002267</v>
       </c>
       <c r="P18">
-        <v>0.2717714253420223</v>
+        <v>0.4341659082002268</v>
       </c>
       <c r="Q18">
-        <v>98.64901884797089</v>
+        <v>153.9169879746089</v>
       </c>
       <c r="R18">
-        <v>98.64901884797089</v>
+        <v>1385.25289177148</v>
       </c>
       <c r="S18">
-        <v>0.0362907262871363</v>
+        <v>0.04417057321896763</v>
       </c>
       <c r="T18">
-        <v>0.0362907262871363</v>
+        <v>0.04417057321896765</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.39179948365893</v>
+        <v>4.955296333333334</v>
       </c>
       <c r="H19">
-        <v>5.39179948365893</v>
+        <v>14.865889</v>
       </c>
       <c r="I19">
-        <v>0.133534002853555</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="J19">
-        <v>0.133534002853555</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.2251183204548</v>
+        <v>0.07433466666666666</v>
       </c>
       <c r="N19">
-        <v>19.2251183204548</v>
+        <v>0.223004</v>
       </c>
       <c r="O19">
-        <v>0.2855707854582036</v>
+        <v>0.001039035035372032</v>
       </c>
       <c r="P19">
-        <v>0.2855707854582036</v>
+        <v>0.001039035035372032</v>
       </c>
       <c r="Q19">
-        <v>103.65798303351</v>
+        <v>0.3683503011728889</v>
       </c>
       <c r="R19">
-        <v>103.65798303351</v>
+        <v>3.315152710556</v>
       </c>
       <c r="S19">
-        <v>0.03813341008026769</v>
+        <v>0.0001057079154308159</v>
       </c>
       <c r="T19">
-        <v>0.03813341008026769</v>
+        <v>0.0001057079154308159</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.39179948365893</v>
+        <v>5.897008666666667</v>
       </c>
       <c r="H20">
-        <v>5.39179948365893</v>
+        <v>17.691026</v>
       </c>
       <c r="I20">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="J20">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>29.6720034147249</v>
+        <v>0.012411</v>
       </c>
       <c r="N20">
-        <v>29.6720034147249</v>
+        <v>0.037233</v>
       </c>
       <c r="O20">
-        <v>0.4407492937115529</v>
+        <v>0.0001734784643863198</v>
       </c>
       <c r="P20">
-        <v>0.4407492937115529</v>
+        <v>0.0001734784643863198</v>
       </c>
       <c r="Q20">
-        <v>159.9854926906397</v>
+        <v>0.07318777456200001</v>
       </c>
       <c r="R20">
-        <v>159.9854926906397</v>
+        <v>0.6586899710580001</v>
       </c>
       <c r="S20">
-        <v>0.05885501744418084</v>
+        <v>2.100317838572446E-05</v>
       </c>
       <c r="T20">
-        <v>0.05885501744418084</v>
+        <v>2.100317838572447E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.39179948365893</v>
+        <v>5.897008666666667</v>
       </c>
       <c r="H21">
-        <v>5.39179948365893</v>
+        <v>17.691026</v>
       </c>
       <c r="I21">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="J21">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.0626289552194924</v>
+        <v>0.08803833333333333</v>
       </c>
       <c r="N21">
-        <v>0.0626289552194924</v>
+        <v>0.264115</v>
       </c>
       <c r="O21">
-        <v>0.0009302933608178702</v>
+        <v>0.001230582134702894</v>
       </c>
       <c r="P21">
-        <v>0.0009302933608178702</v>
+        <v>0.001230582134702894</v>
       </c>
       <c r="Q21">
-        <v>0.3376827684145573</v>
+        <v>0.5191628146655556</v>
       </c>
       <c r="R21">
-        <v>0.3376827684145573</v>
+        <v>4.67246533199</v>
       </c>
       <c r="S21">
-        <v>0.0001242257962980967</v>
+        <v>0.0001489875771317277</v>
       </c>
       <c r="T21">
-        <v>0.0001242257962980967</v>
+        <v>0.0001489875771317277</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.12159796544446</v>
+        <v>5.897008666666667</v>
       </c>
       <c r="H22">
-        <v>5.12159796544446</v>
+        <v>17.691026</v>
       </c>
       <c r="I22">
-        <v>0.126842157132356</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="J22">
-        <v>0.126842157132356</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.06585425610143569</v>
+        <v>20.739774</v>
       </c>
       <c r="N22">
-        <v>0.06585425610143569</v>
+        <v>62.219322</v>
       </c>
       <c r="O22">
-        <v>0.0009782021274034895</v>
+        <v>0.2898963939440272</v>
       </c>
       <c r="P22">
-        <v>0.0009782021274034895</v>
+        <v>0.2898963939440272</v>
       </c>
       <c r="Q22">
-        <v>0.3372790240649715</v>
+        <v>122.302627022708</v>
       </c>
       <c r="R22">
-        <v>0.3372790240649715</v>
+        <v>1100.723643204372</v>
       </c>
       <c r="S22">
-        <v>0.0001240772679513183</v>
+        <v>0.03509799153989285</v>
       </c>
       <c r="T22">
-        <v>0.0001240772679513183</v>
+        <v>0.03509799153989286</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.12159796544446</v>
+        <v>5.897008666666667</v>
       </c>
       <c r="H23">
-        <v>5.12159796544446</v>
+        <v>17.691026</v>
       </c>
       <c r="I23">
-        <v>0.126842157132356</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="J23">
-        <v>0.126842157132356</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>18.296121572575</v>
+        <v>19.56635666666667</v>
       </c>
       <c r="N23">
-        <v>18.296121572575</v>
+        <v>58.69907</v>
       </c>
       <c r="O23">
-        <v>0.2717714253420223</v>
+        <v>0.2734946022212847</v>
       </c>
       <c r="P23">
-        <v>0.2717714253420223</v>
+        <v>0.2734946022212847</v>
       </c>
       <c r="Q23">
-        <v>93.70537902162461</v>
+        <v>115.3829748384245</v>
       </c>
       <c r="R23">
-        <v>93.70537902162461</v>
+        <v>1038.44677354582</v>
       </c>
       <c r="S23">
-        <v>0.03447207383731715</v>
+        <v>0.0331122133130859</v>
       </c>
       <c r="T23">
-        <v>0.03447207383731715</v>
+        <v>0.03311221331308591</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.12159796544446</v>
+        <v>5.897008666666667</v>
       </c>
       <c r="H24">
-        <v>5.12159796544446</v>
+        <v>17.691026</v>
       </c>
       <c r="I24">
-        <v>0.126842157132356</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="J24">
-        <v>0.126842157132356</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>19.2251183204548</v>
+        <v>31.06110666666667</v>
       </c>
       <c r="N24">
-        <v>19.2251183204548</v>
+        <v>93.18332000000001</v>
       </c>
       <c r="O24">
-        <v>0.2855707854582036</v>
+        <v>0.4341659082002267</v>
       </c>
       <c r="P24">
-        <v>0.2855707854582036</v>
+        <v>0.4341659082002268</v>
       </c>
       <c r="Q24">
-        <v>98.46332687547032</v>
+        <v>183.1676152095912</v>
       </c>
       <c r="R24">
-        <v>98.46332687547032</v>
+        <v>1648.50853688632</v>
       </c>
       <c r="S24">
-        <v>0.03622241444149978</v>
+        <v>0.05256481864297925</v>
       </c>
       <c r="T24">
-        <v>0.03622241444149978</v>
+        <v>0.05256481864297926</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.12159796544446</v>
+        <v>5.897008666666667</v>
       </c>
       <c r="H25">
-        <v>5.12159796544446</v>
+        <v>17.691026</v>
       </c>
       <c r="I25">
-        <v>0.126842157132356</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="J25">
-        <v>0.126842157132356</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.6720034147249</v>
+        <v>0.07433466666666666</v>
       </c>
       <c r="N25">
-        <v>29.6720034147249</v>
+        <v>0.223004</v>
       </c>
       <c r="O25">
-        <v>0.4407492937115529</v>
+        <v>0.001039035035372032</v>
       </c>
       <c r="P25">
-        <v>0.4407492937115529</v>
+        <v>0.001039035035372032</v>
       </c>
       <c r="Q25">
-        <v>151.9680723195161</v>
+        <v>0.4383521735671111</v>
       </c>
       <c r="R25">
-        <v>151.9680723195161</v>
+        <v>3.945169562104</v>
       </c>
       <c r="S25">
-        <v>0.05590559116893572</v>
+        <v>0.0001257968144584132</v>
       </c>
       <c r="T25">
-        <v>0.05590559116893572</v>
+        <v>0.0001257968144584132</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.12159796544446</v>
+        <v>5.159083666666667</v>
       </c>
       <c r="H26">
-        <v>5.12159796544446</v>
+        <v>15.477251</v>
       </c>
       <c r="I26">
-        <v>0.126842157132356</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="J26">
-        <v>0.126842157132356</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.0626289552194924</v>
+        <v>0.012411</v>
       </c>
       <c r="N26">
-        <v>0.0626289552194924</v>
+        <v>0.037233</v>
       </c>
       <c r="O26">
-        <v>0.0009302933608178702</v>
+        <v>0.0001734784643863198</v>
       </c>
       <c r="P26">
-        <v>0.0009302933608178702</v>
+        <v>0.0001734784643863198</v>
       </c>
       <c r="Q26">
-        <v>0.3207603296300645</v>
+        <v>0.06402938738699999</v>
       </c>
       <c r="R26">
-        <v>0.3207603296300645</v>
+        <v>0.576264486483</v>
       </c>
       <c r="S26">
-        <v>0.0001180004166520478</v>
+        <v>1.837493561275826E-05</v>
       </c>
       <c r="T26">
-        <v>0.0001180004166520478</v>
+        <v>1.837493561275827E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2087,57 +2087,57 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>10.8392211941781</v>
+        <v>5.159083666666667</v>
       </c>
       <c r="H27">
-        <v>10.8392211941781</v>
+        <v>15.477251</v>
       </c>
       <c r="I27">
-        <v>0.2684455529661998</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="J27">
-        <v>0.2684455529661998</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.06585425610143569</v>
+        <v>0.08803833333333333</v>
       </c>
       <c r="N27">
-        <v>0.06585425610143569</v>
+        <v>0.264115</v>
       </c>
       <c r="O27">
-        <v>0.0009782021274034895</v>
+        <v>0.001230582134702894</v>
       </c>
       <c r="P27">
-        <v>0.0009782021274034895</v>
+        <v>0.001230582134702894</v>
       </c>
       <c r="Q27">
-        <v>0.7138088484615142</v>
+        <v>0.4541971275405555</v>
       </c>
       <c r="R27">
-        <v>0.7138088484615142</v>
+        <v>4.087774147865</v>
       </c>
       <c r="S27">
-        <v>0.0002625940110035427</v>
+        <v>0.0001303439454076665</v>
       </c>
       <c r="T27">
-        <v>0.0002625940110035427</v>
+        <v>0.0001303439454076666</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>10.8392211941781</v>
+        <v>5.159083666666667</v>
       </c>
       <c r="H28">
-        <v>10.8392211941781</v>
+        <v>15.477251</v>
       </c>
       <c r="I28">
-        <v>0.2684455529661998</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="J28">
-        <v>0.2684455529661998</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>18.296121572575</v>
+        <v>20.739774</v>
       </c>
       <c r="N28">
-        <v>18.296121572575</v>
+        <v>62.219322</v>
       </c>
       <c r="O28">
-        <v>0.2717714253420223</v>
+        <v>0.2898963939440272</v>
       </c>
       <c r="P28">
-        <v>0.2717714253420223</v>
+        <v>0.2898963939440272</v>
       </c>
       <c r="Q28">
-        <v>198.3157087207141</v>
+        <v>106.998229293758</v>
       </c>
       <c r="R28">
-        <v>198.3157087207141</v>
+        <v>962.9840636438219</v>
       </c>
       <c r="S28">
-        <v>0.07295583055635144</v>
+        <v>0.03070598758143242</v>
       </c>
       <c r="T28">
-        <v>0.07295583055635144</v>
+        <v>0.03070598758143244</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>10.8392211941781</v>
+        <v>5.159083666666667</v>
       </c>
       <c r="H29">
-        <v>10.8392211941781</v>
+        <v>15.477251</v>
       </c>
       <c r="I29">
-        <v>0.2684455529661998</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="J29">
-        <v>0.2684455529661998</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.2251183204548</v>
+        <v>19.56635666666667</v>
       </c>
       <c r="N29">
-        <v>19.2251183204548</v>
+        <v>58.69907</v>
       </c>
       <c r="O29">
-        <v>0.2855707854582036</v>
+        <v>0.2734946022212847</v>
       </c>
       <c r="P29">
-        <v>0.2855707854582036</v>
+        <v>0.2734946022212847</v>
       </c>
       <c r="Q29">
-        <v>208.3853099596553</v>
+        <v>100.9444710951744</v>
       </c>
       <c r="R29">
-        <v>208.3853099596553</v>
+        <v>908.5002398565699</v>
       </c>
       <c r="S29">
-        <v>0.07666020741331946</v>
+        <v>0.02896870066282035</v>
       </c>
       <c r="T29">
-        <v>0.07666020741331946</v>
+        <v>0.02896870066282035</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>10.8392211941781</v>
+        <v>5.159083666666667</v>
       </c>
       <c r="H30">
-        <v>10.8392211941781</v>
+        <v>15.477251</v>
       </c>
       <c r="I30">
-        <v>0.2684455529661998</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="J30">
-        <v>0.2684455529661998</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>29.6720034147249</v>
+        <v>31.06110666666667</v>
       </c>
       <c r="N30">
-        <v>29.6720034147249</v>
+        <v>93.18332000000001</v>
       </c>
       <c r="O30">
-        <v>0.4407492937115529</v>
+        <v>0.4341659082002267</v>
       </c>
       <c r="P30">
-        <v>0.4407492937115529</v>
+        <v>0.4341659082002268</v>
       </c>
       <c r="Q30">
-        <v>321.6214082866111</v>
+        <v>160.2468480725911</v>
       </c>
       <c r="R30">
-        <v>321.6214082866111</v>
+        <v>1442.22163265332</v>
       </c>
       <c r="S30">
-        <v>0.1183171878698598</v>
+        <v>0.04598709492071681</v>
       </c>
       <c r="T30">
-        <v>0.1183171878698598</v>
+        <v>0.04598709492071684</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>10.8392211941781</v>
+        <v>5.159083666666667</v>
       </c>
       <c r="H31">
-        <v>10.8392211941781</v>
+        <v>15.477251</v>
       </c>
       <c r="I31">
-        <v>0.2684455529661998</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="J31">
-        <v>0.2684455529661998</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.0626289552194924</v>
+        <v>0.07433466666666666</v>
       </c>
       <c r="N31">
-        <v>0.0626289552194924</v>
+        <v>0.223004</v>
       </c>
       <c r="O31">
-        <v>0.0009302933608178702</v>
+        <v>0.001039035035372032</v>
       </c>
       <c r="P31">
-        <v>0.0009302933608178702</v>
+        <v>0.001039035035372032</v>
       </c>
       <c r="Q31">
-        <v>0.6788490987843531</v>
+        <v>0.3834987646671111</v>
       </c>
       <c r="R31">
-        <v>0.6788490987843531</v>
+        <v>3.451488882004</v>
       </c>
       <c r="S31">
-        <v>0.0002497331156655376</v>
+        <v>0.0001100551699134516</v>
       </c>
       <c r="T31">
-        <v>0.0002497331156655376</v>
+        <v>0.0001100551699134516</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>12.604947</v>
+      </c>
+      <c r="H32">
+        <v>37.814841</v>
+      </c>
+      <c r="I32">
+        <v>0.2587907264507627</v>
+      </c>
+      <c r="J32">
+        <v>0.2587907264507627</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.012411</v>
+      </c>
+      <c r="N32">
+        <v>0.037233</v>
+      </c>
+      <c r="O32">
+        <v>0.0001734784643863198</v>
+      </c>
+      <c r="P32">
+        <v>0.0001734784643863198</v>
+      </c>
+      <c r="Q32">
+        <v>0.156439997217</v>
+      </c>
+      <c r="R32">
+        <v>1.407959974953</v>
+      </c>
+      <c r="S32">
+        <v>4.489461782209846E-05</v>
+      </c>
+      <c r="T32">
+        <v>4.489461782209848E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>12.604947</v>
+      </c>
+      <c r="H33">
+        <v>37.814841</v>
+      </c>
+      <c r="I33">
+        <v>0.2587907264507627</v>
+      </c>
+      <c r="J33">
+        <v>0.2587907264507627</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.08803833333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.264115</v>
+      </c>
+      <c r="O33">
+        <v>0.001230582134702894</v>
+      </c>
+      <c r="P33">
+        <v>0.001230582134702894</v>
+      </c>
+      <c r="Q33">
+        <v>1.109718525635</v>
+      </c>
+      <c r="R33">
+        <v>9.987466730714999</v>
+      </c>
+      <c r="S33">
+        <v>0.0003184632445970922</v>
+      </c>
+      <c r="T33">
+        <v>0.0003184632445970923</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>12.604947</v>
+      </c>
+      <c r="H34">
+        <v>37.814841</v>
+      </c>
+      <c r="I34">
+        <v>0.2587907264507627</v>
+      </c>
+      <c r="J34">
+        <v>0.2587907264507627</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>20.739774</v>
+      </c>
+      <c r="N34">
+        <v>62.219322</v>
+      </c>
+      <c r="O34">
+        <v>0.2898963939440272</v>
+      </c>
+      <c r="P34">
+        <v>0.2898963939440272</v>
+      </c>
+      <c r="Q34">
+        <v>261.423752061978</v>
+      </c>
+      <c r="R34">
+        <v>2352.813768557802</v>
+      </c>
+      <c r="S34">
+        <v>0.07502249838423126</v>
+      </c>
+      <c r="T34">
+        <v>0.07502249838423129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>12.604947</v>
+      </c>
+      <c r="H35">
+        <v>37.814841</v>
+      </c>
+      <c r="I35">
+        <v>0.2587907264507627</v>
+      </c>
+      <c r="J35">
+        <v>0.2587907264507627</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>19.56635666666667</v>
+      </c>
+      <c r="N35">
+        <v>58.69907</v>
+      </c>
+      <c r="O35">
+        <v>0.2734946022212847</v>
+      </c>
+      <c r="P35">
+        <v>0.2734946022212847</v>
+      </c>
+      <c r="Q35">
+        <v>246.63288876643</v>
+      </c>
+      <c r="R35">
+        <v>2219.69599889787</v>
+      </c>
+      <c r="S35">
+        <v>0.07077786678920864</v>
+      </c>
+      <c r="T35">
+        <v>0.07077786678920865</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>12.604947</v>
+      </c>
+      <c r="H36">
+        <v>37.814841</v>
+      </c>
+      <c r="I36">
+        <v>0.2587907264507627</v>
+      </c>
+      <c r="J36">
+        <v>0.2587907264507627</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>31.06110666666667</v>
+      </c>
+      <c r="N36">
+        <v>93.18332000000001</v>
+      </c>
+      <c r="O36">
+        <v>0.4341659082002267</v>
+      </c>
+      <c r="P36">
+        <v>0.4341659082002268</v>
+      </c>
+      <c r="Q36">
+        <v>391.5236032946801</v>
+      </c>
+      <c r="R36">
+        <v>3523.712429652121</v>
+      </c>
+      <c r="S36">
+        <v>0.1123581107832918</v>
+      </c>
+      <c r="T36">
+        <v>0.1123581107832919</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>12.604947</v>
+      </c>
+      <c r="H37">
+        <v>37.814841</v>
+      </c>
+      <c r="I37">
+        <v>0.2587907264507627</v>
+      </c>
+      <c r="J37">
+        <v>0.2587907264507627</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.07433466666666666</v>
+      </c>
+      <c r="N37">
+        <v>0.223004</v>
+      </c>
+      <c r="O37">
+        <v>0.001039035035372032</v>
+      </c>
+      <c r="P37">
+        <v>0.001039035035372032</v>
+      </c>
+      <c r="Q37">
+        <v>0.936984533596</v>
+      </c>
+      <c r="R37">
+        <v>8.432860802363999</v>
+      </c>
+      <c r="S37">
+        <v>0.000268892631611722</v>
+      </c>
+      <c r="T37">
+        <v>0.0002688926316117221</v>
       </c>
     </row>
   </sheetData>
